--- a/data/outputs/数学期刊(下)_altmetric/53Acta Mathematica Scientia.xlsx
+++ b/data/outputs/数学期刊(下)_altmetric/53Acta Mathematica Scientia.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE113"/>
+  <dimension ref="A1:CF113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1029,6 +1034,9 @@
         <v>0</v>
       </c>
       <c r="CE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1272,6 +1280,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1529,6 +1540,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1778,6 +1792,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2035,6 +2052,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2292,6 +2312,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2541,6 +2564,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2790,6 +2816,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3043,6 +3072,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3292,6 +3324,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3541,6 +3576,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3794,6 +3832,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4047,6 +4088,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4304,6 +4348,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4549,6 +4596,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4804,6 +4854,9 @@
         <v>0</v>
       </c>
       <c r="CE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5055,6 +5108,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5296,6 +5352,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5537,6 +5596,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5786,6 +5848,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6035,6 +6100,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6292,6 +6360,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6541,6 +6612,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6794,6 +6868,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7047,6 +7124,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7296,6 +7376,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7545,6 +7628,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7794,6 +7880,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8043,6 +8132,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8292,6 +8384,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8541,6 +8636,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8796,6 +8894,9 @@
         <v>0</v>
       </c>
       <c r="CE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9039,6 +9140,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9288,6 +9392,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9537,6 +9644,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9782,6 +9892,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10031,6 +10144,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10276,6 +10392,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10525,6 +10644,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10774,6 +10896,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11021,6 +11146,9 @@
         <v>0</v>
       </c>
       <c r="CE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11264,6 +11392,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11513,6 +11644,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11770,6 +11904,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12019,6 +12156,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12266,6 +12406,9 @@
         <v>0</v>
       </c>
       <c r="CE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12509,6 +12652,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12758,6 +12904,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13007,6 +13156,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13260,6 +13412,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13509,6 +13664,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13758,6 +13916,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -14007,6 +14168,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14252,6 +14416,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14501,6 +14668,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14750,6 +14920,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14995,6 +15168,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15244,6 +15420,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15493,6 +15672,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15742,6 +15924,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15989,6 +16174,9 @@
         <v>0</v>
       </c>
       <c r="CE62" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16232,6 +16420,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16485,6 +16676,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16734,6 +16928,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16983,6 +17180,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17232,6 +17432,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17481,6 +17684,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17730,6 +17936,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17979,6 +18188,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18228,6 +18440,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18483,6 +18698,9 @@
         <v>0</v>
       </c>
       <c r="CE72" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18730,6 +18948,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18979,6 +19200,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19228,6 +19452,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19483,6 +19710,9 @@
         <v>0</v>
       </c>
       <c r="CE76" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19726,6 +19956,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19967,6 +20200,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -20216,6 +20452,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20465,6 +20704,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -20716,6 +20958,9 @@
         <v>0</v>
       </c>
       <c r="CE81" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20959,6 +21204,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -21208,6 +21456,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -21457,6 +21708,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -21706,6 +21960,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -21955,6 +22212,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -22202,6 +22462,9 @@
         <v>0</v>
       </c>
       <c r="CE87" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22445,6 +22708,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -22690,6 +22956,9 @@
       <c r="CE89" t="n">
         <v>0</v>
       </c>
+      <c r="CF89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -22939,6 +23208,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -23186,6 +23458,9 @@
         <v>0</v>
       </c>
       <c r="CE91" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23417,6 +23692,9 @@
       <c r="CE92" t="n">
         <v>0</v>
       </c>
+      <c r="CF92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -23664,6 +23942,9 @@
         <v>0</v>
       </c>
       <c r="CE93" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23907,6 +24188,9 @@
       <c r="CE94" t="n">
         <v>0</v>
       </c>
+      <c r="CF94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -24156,6 +24440,9 @@
       <c r="CE95" t="n">
         <v>0</v>
       </c>
+      <c r="CF95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -24405,6 +24692,9 @@
       <c r="CE96" t="n">
         <v>0</v>
       </c>
+      <c r="CF96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -24654,6 +24944,9 @@
       <c r="CE97" t="n">
         <v>0</v>
       </c>
+      <c r="CF97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -24899,6 +25192,9 @@
       <c r="CE98" t="n">
         <v>0</v>
       </c>
+      <c r="CF98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -25142,6 +25438,9 @@
         <v>0</v>
       </c>
       <c r="CE99" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25389,6 +25688,9 @@
       <c r="CE100" t="n">
         <v>0</v>
       </c>
+      <c r="CF100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -25634,6 +25936,9 @@
       <c r="CE101" t="n">
         <v>0</v>
       </c>
+      <c r="CF101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -25883,6 +26188,9 @@
       <c r="CE102" t="n">
         <v>0</v>
       </c>
+      <c r="CF102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -26132,6 +26440,9 @@
       <c r="CE103" t="n">
         <v>0</v>
       </c>
+      <c r="CF103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -26375,6 +26686,9 @@
         <v>0</v>
       </c>
       <c r="CE104" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26618,6 +26932,9 @@
       <c r="CE105" t="n">
         <v>0</v>
       </c>
+      <c r="CF105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -26867,6 +27184,9 @@
       <c r="CE106" t="n">
         <v>0</v>
       </c>
+      <c r="CF106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -27110,6 +27430,9 @@
         <v>0</v>
       </c>
       <c r="CE107" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27357,6 +27680,9 @@
       <c r="CE108" t="n">
         <v>0</v>
       </c>
+      <c r="CF108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -27606,6 +27932,9 @@
       <c r="CE109" t="n">
         <v>0</v>
       </c>
+      <c r="CF109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -27853,6 +28182,9 @@
         <v>0</v>
       </c>
       <c r="CE110" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28096,6 +28428,9 @@
       <c r="CE111" t="n">
         <v>0</v>
       </c>
+      <c r="CF111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -28345,6 +28680,9 @@
       <c r="CE112" t="n">
         <v>0</v>
       </c>
+      <c r="CF112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -28594,6 +28932,9 @@
       <c r="CE113" t="n">
         <v>0</v>
       </c>
+      <c r="CF113" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
